--- a/VersionRecords/Version withdraw/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version withdraw/定时器/新增定时器.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>定时器大类</t>
   </si>
@@ -129,14 +124,109 @@
   </si>
   <si>
     <t>3.4.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskWithdrawExamSuccTask"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskWithdrawExamTipTask"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskWithdrawExamFailTask"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskWithdrawExamFailTask.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamFailTask</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskWithdrawExamSuccTask.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskWithdrawExamTipTask.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamSuccTask</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamTipTask</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamTipTask
+(mogoroom-tasktracker)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamSuccTask
+(mogoroom-tasktracker)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskWithdrawExamFailTask
+(mogoroom-tasktracker)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日后审核失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个小时后出款成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个小时后提示去审核邮件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现审核记录，1个工作日后审核失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现审核记录，1个小时后出款成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现审核记录，1个小时后发提示去审核邮件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +446,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,7 +533,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -624,14 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
@@ -650,10 +808,11 @@
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="32.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="18" max="18" width="11.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -709,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="45" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -756,6 +915,156 @@
         <v>30</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="27">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="27">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -763,6 +1072,6 @@
   <autoFilter ref="A1:XFD2"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version withdraw/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version withdraw/定时器/新增定时器.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\git\Mogo_Doc\VersionRecords\Version withdraw\定时器\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>定时器大类</t>
   </si>
@@ -79,43 +84,7 @@
     <t>否</t>
   </si>
   <si>
-    <t>将提现计划转为出款计划</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯银鹏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈铖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要将提现计划表中的计划，分类出款渠道进行出款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithdrawChooseChannelTask
-(mogoroom-tasktracker)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithdrawChooseChannelTask</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.WithdrawChooseChannelTask.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.WithdrawChooseChannelTask"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>定时任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5分钟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -225,8 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,74 +415,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -533,7 +434,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -782,14 +683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
@@ -812,7 +713,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -868,23 +769,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" customHeight="1">
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="14" t="s">
@@ -894,47 +795,47 @@
         <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27">
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="14" t="s">
@@ -944,47 +845,47 @@
         <v>19</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27">
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="14" t="s">
@@ -993,83 +894,33 @@
       <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>53</v>
+      <c r="K4" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="27">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD2"/>
+  <autoFilter ref="A1:XFD1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
